--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-60_remove/rem3/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-60_remove/rem3/42/word_level_predictions_42.xlsx
@@ -29,12 +29,17 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFB6B6"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -55,11 +60,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -3223,7 +3229,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G54" t="b">
@@ -3247,57 +3253,57 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="n">
+      <c r="A55" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" s="2" t="inlineStr">
         <is>
           <t>Capture Failed Stick movement detected Panorama has stopped .</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C55" s="2" t="inlineStr">
         <is>
           <t>stopped</t>
         </is>
       </c>
-      <c r="D55" t="n">
+      <c r="D55" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="E55" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="F55" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G55" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I55" t="b">
-        <v>1</v>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K55" t="b">
-        <v>1</v>
-      </c>
-      <c r="L55" t="inlineStr">
+      <c r="G55" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J55" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K55" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L55" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-60_remove/rem3/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-60_remove/rem3/42/word_level_predictions_42.xlsx
@@ -29,17 +29,12 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFB6B6"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -60,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -3229,81 +3223,81 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G54" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I54" t="b">
+        <v>1</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K54" t="b">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>3</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Capture Failed Stick movement detected Panorama has stopped .</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>stopped</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>7</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G54" t="b">
-        <v>1</v>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I54" t="b">
-        <v>1</v>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K54" t="b">
-        <v>1</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B55" s="2" t="inlineStr">
-        <is>
-          <t>Capture Failed Stick movement detected Panorama has stopped .</t>
-        </is>
-      </c>
-      <c r="C55" s="2" t="inlineStr">
-        <is>
-          <t>stopped</t>
-        </is>
-      </c>
-      <c r="D55" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="E55" s="2" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F55" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G55" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I55" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J55" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K55" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L55" s="2" t="inlineStr">
+      <c r="G55" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I55" t="b">
+        <v>1</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K55" t="b">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
